--- a/Template/Example/Приказы.xlsx
+++ b/Template/Example/Приказы.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -15,9 +15,9 @@
     <x:sheet name="Приказы" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$P$2</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$Q$2</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="152511"/>
+  <x:calcPr calcId="152511" refMode="R1C1"/>
 </x:workbook>
 </file>
 
@@ -39,7 +39,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Номер ведущего документа</t>
+          <t>Номер документа</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Дата ведущего документа</t>
+          <t>Дата документа</t>
         </r>
       </text>
     </comment>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <x:si>
     <x:t>Содержание</x:t>
   </x:si>
@@ -224,49 +224,46 @@
     <x:t>Журнал регистрации</x:t>
   </x:si>
   <x:si>
+    <x:t>Регистрация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наша</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел снабжения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Соболева Надежда Николаевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Действующий</x:t>
+  </x:si>
+  <x:si>
     <x:t>Прим</x:t>
   </x:si>
   <x:si>
-    <x:t>Действующий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\starkov_vv\Desktop\DocumentBody\Кириллица.docx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отдел снабжения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наша</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Приказ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Соболева Надежда Николаевна</x:t>
+    <x:t>C:\ImportData\line.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Зарегистрирован</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приказ по основной деятельности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08.02.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>04.06.2021</x:t>
-  </x:si>
-  <x:si>
     <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04.10.2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена НОР "Наша".</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -301,23 +298,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -330,9 +342,7 @@
       <top style="thin">
         <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -345,63 +355,97 @@
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,148 +795,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:S3"/>
+  <x:dimension ref="A1:S22"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <x:selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.85546875" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <x:col min="3" max="3" width="21" style="9" customWidth="1"/>
-    <x:col min="4" max="4" width="22.85546875" style="9" customWidth="1"/>
-    <x:col min="5" max="5" width="21.28515625" style="9" customWidth="1"/>
-    <x:col min="6" max="6" width="21" style="9" customWidth="1"/>
-    <x:col min="7" max="7" width="62" style="10" customWidth="1"/>
-    <x:col min="8" max="8" width="20.42578125" style="10" customWidth="1"/>
-    <x:col min="9" max="9" width="21.28515625" style="10" customWidth="1"/>
-    <x:col min="10" max="10" width="21.28515625" style="2" customWidth="1"/>
-    <x:col min="11" max="11" width="17.85546875" style="2" customWidth="1"/>
-    <x:col min="12" max="13" width="32.140625" style="2" customWidth="1"/>
-    <x:col min="14" max="16384" width="9.140625" style="2"/>
+    <x:col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <x:col min="4" max="4" width="22.85546875" style="4" customWidth="1"/>
+    <x:col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
+    <x:col min="6" max="6" width="21" style="4" customWidth="1"/>
+    <x:col min="7" max="7" width="48.7109375" style="5" customWidth="1"/>
+    <x:col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
+    <x:col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
+    <x:col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
+    <x:col min="12" max="14" width="32.140625" style="1" customWidth="1"/>
+    <x:col min="15" max="16384" width="9.140625" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A1" s="19" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="19" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="19" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="D1" s="19" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E1" s="7" t="s">
+      <x:c r="E1" s="19" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F1" s="8" t="s">
+      <x:c r="F1" s="21" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G1" s="7" t="s">
+      <x:c r="G1" s="15" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H1" s="8" t="s">
+      <x:c r="H1" s="16" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="I1" s="6" t="s">
+      <x:c r="I1" s="20" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="J1" s="6" t="s">
+      <x:c r="J1" s="17" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="K1" s="8" t="s">
+      <x:c r="K1" s="16" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="L1" s="6" t="s">
+      <x:c r="L1" s="23" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M1" s="16" t="s">
+      <x:c r="M1" s="22" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="N1" s="14" t="s">
+      <x:c r="N1" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O1" s="18" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="O1" s="14" t="s">
+      <x:c r="P1" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="P1" s="14" t="s">
+      <x:c r="Q1" s="18" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>7</x:v>
-      </x:c>
     </x:row>
     <x:row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <x:c r="A2" s="4">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="3">
+      <x:c r="A2" s="24">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="2">
         <x:v>44239</x:v>
       </x:c>
-      <x:c r="C2" s="9" t="s">
+      <x:c r="C2" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H2" s="25" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="26" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K2" s="27" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D2" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E2" s="9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F2" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G2" s="10" t="s">
+      <x:c r="M2" s="1">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H2" s="12" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I2" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J2" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K2" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L2" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="M2" s="2">
-        <x:v>1</x:v>
+      <x:c r="N2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P2" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="R2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="S2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <x:c r="A3" s="4"/>
-      <x:c r="H3" s="12"/>
+      <x:c r="R2"/>
+      <x:c r="S2"/>
+    </x:row>
+    <x:row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A3" s="6"/>
+      <x:c r="B3" s="7"/>
+      <x:c r="C3" s="8"/>
+      <x:c r="D3" s="8"/>
+      <x:c r="E3" s="8"/>
+      <x:c r="F3" s="8"/>
+      <x:c r="G3" s="9"/>
+      <x:c r="H3" s="10"/>
       <x:c r="I3" s="11"/>
       <x:c r="K3" s="13"/>
     </x:row>
+    <x:row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A4" s="14"/>
+      <x:c r="B4" s="7"/>
+      <x:c r="C4" s="8"/>
+      <x:c r="D4" s="8"/>
+      <x:c r="E4" s="8"/>
+      <x:c r="F4" s="8"/>
+      <x:c r="G4" s="9"/>
+      <x:c r="H4" s="9"/>
+      <x:c r="I4" s="9"/>
+    </x:row>
+    <x:row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A5" s="14"/>
+      <x:c r="B5" s="7"/>
+      <x:c r="C5" s="8"/>
+      <x:c r="D5" s="8"/>
+      <x:c r="E5" s="8"/>
+      <x:c r="F5" s="8"/>
+      <x:c r="G5" s="9"/>
+      <x:c r="H5" s="9"/>
+      <x:c r="I5" s="9"/>
+    </x:row>
+    <x:row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A6" s="14"/>
+      <x:c r="B6" s="7"/>
+      <x:c r="C6" s="8"/>
+      <x:c r="D6" s="8"/>
+      <x:c r="E6" s="8"/>
+      <x:c r="F6" s="8"/>
+      <x:c r="G6" s="9"/>
+      <x:c r="H6" s="9"/>
+      <x:c r="I6" s="9"/>
+    </x:row>
+    <x:row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A7" s="14"/>
+      <x:c r="B7" s="7"/>
+      <x:c r="C7" s="8"/>
+      <x:c r="D7" s="8"/>
+      <x:c r="E7" s="8"/>
+      <x:c r="F7" s="8"/>
+      <x:c r="G7" s="9"/>
+      <x:c r="H7" s="9"/>
+      <x:c r="I7" s="9"/>
+    </x:row>
+    <x:row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A8" s="14"/>
+      <x:c r="B8" s="7"/>
+      <x:c r="C8" s="8"/>
+      <x:c r="D8" s="8"/>
+      <x:c r="E8" s="8"/>
+      <x:c r="F8" s="8"/>
+      <x:c r="G8" s="9"/>
+      <x:c r="H8" s="9"/>
+      <x:c r="I8" s="9"/>
+    </x:row>
+    <x:row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A9" s="14"/>
+      <x:c r="B9" s="7"/>
+      <x:c r="C9" s="8"/>
+      <x:c r="D9" s="8"/>
+      <x:c r="E9" s="8"/>
+      <x:c r="F9" s="8"/>
+      <x:c r="G9" s="9"/>
+      <x:c r="H9" s="9"/>
+      <x:c r="I9" s="9"/>
+    </x:row>
+    <x:row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A10" s="14"/>
+      <x:c r="B10" s="7"/>
+      <x:c r="C10" s="8"/>
+      <x:c r="D10" s="8"/>
+      <x:c r="E10" s="8"/>
+      <x:c r="F10" s="8"/>
+      <x:c r="G10" s="9"/>
+      <x:c r="H10" s="9"/>
+      <x:c r="I10" s="9"/>
+    </x:row>
+    <x:row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A11" s="14"/>
+      <x:c r="B11" s="7"/>
+      <x:c r="C11" s="8"/>
+      <x:c r="D11" s="8"/>
+      <x:c r="E11" s="8"/>
+      <x:c r="F11" s="8"/>
+      <x:c r="G11" s="9"/>
+      <x:c r="H11" s="9"/>
+      <x:c r="I11" s="9"/>
+    </x:row>
+    <x:row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A12" s="14"/>
+      <x:c r="B12" s="7"/>
+      <x:c r="C12" s="8"/>
+      <x:c r="D12" s="8"/>
+      <x:c r="E12" s="8"/>
+      <x:c r="F12" s="8"/>
+      <x:c r="G12" s="9"/>
+      <x:c r="H12" s="9"/>
+      <x:c r="I12" s="9"/>
+    </x:row>
+    <x:row r="13" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A13" s="14"/>
+      <x:c r="B13" s="7"/>
+      <x:c r="C13" s="8"/>
+      <x:c r="D13" s="8"/>
+      <x:c r="E13" s="8"/>
+      <x:c r="F13" s="8"/>
+      <x:c r="G13" s="9"/>
+      <x:c r="H13" s="9"/>
+      <x:c r="I13" s="9"/>
+    </x:row>
+    <x:row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A14" s="14"/>
+      <x:c r="B14" s="7"/>
+      <x:c r="C14" s="8"/>
+      <x:c r="D14" s="8"/>
+      <x:c r="E14" s="8"/>
+      <x:c r="F14" s="8"/>
+      <x:c r="G14" s="9"/>
+      <x:c r="H14" s="9"/>
+      <x:c r="I14" s="9"/>
+    </x:row>
+    <x:row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A15" s="14"/>
+      <x:c r="B15" s="7"/>
+      <x:c r="C15" s="8"/>
+      <x:c r="D15" s="8"/>
+      <x:c r="E15" s="8"/>
+      <x:c r="F15" s="8"/>
+      <x:c r="G15" s="9"/>
+      <x:c r="H15" s="9"/>
+      <x:c r="I15" s="9"/>
+    </x:row>
+    <x:row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A16" s="14"/>
+      <x:c r="B16" s="7"/>
+      <x:c r="C16" s="8"/>
+      <x:c r="D16" s="8"/>
+      <x:c r="E16" s="8"/>
+      <x:c r="F16" s="8"/>
+      <x:c r="G16" s="9"/>
+      <x:c r="H16" s="9"/>
+      <x:c r="I16" s="9"/>
+    </x:row>
+    <x:row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A17" s="14"/>
+      <x:c r="B17" s="7"/>
+      <x:c r="C17" s="8"/>
+      <x:c r="D17" s="8"/>
+      <x:c r="E17" s="8"/>
+      <x:c r="F17" s="8"/>
+      <x:c r="G17" s="9"/>
+      <x:c r="H17" s="9"/>
+      <x:c r="I17" s="9"/>
+    </x:row>
+    <x:row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A18" s="14"/>
+      <x:c r="B18" s="7"/>
+      <x:c r="C18" s="8"/>
+      <x:c r="D18" s="8"/>
+      <x:c r="E18" s="8"/>
+      <x:c r="F18" s="8"/>
+      <x:c r="G18" s="9"/>
+      <x:c r="H18" s="9"/>
+      <x:c r="I18" s="9"/>
+    </x:row>
+    <x:row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A19" s="14"/>
+      <x:c r="B19" s="7"/>
+      <x:c r="C19" s="8"/>
+      <x:c r="D19" s="8"/>
+      <x:c r="E19" s="8"/>
+      <x:c r="F19" s="8"/>
+      <x:c r="G19" s="9"/>
+      <x:c r="H19" s="9"/>
+      <x:c r="I19" s="9"/>
+    </x:row>
+    <x:row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A20" s="14"/>
+      <x:c r="B20" s="7"/>
+      <x:c r="C20" s="8"/>
+      <x:c r="D20" s="8"/>
+      <x:c r="E20" s="8"/>
+      <x:c r="F20" s="8"/>
+      <x:c r="G20" s="9"/>
+      <x:c r="H20" s="9"/>
+      <x:c r="I20" s="9"/>
+    </x:row>
+    <x:row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A21" s="14"/>
+      <x:c r="B21" s="7"/>
+      <x:c r="C21" s="8"/>
+      <x:c r="D21" s="8"/>
+      <x:c r="E21" s="8"/>
+      <x:c r="F21" s="8"/>
+      <x:c r="G21" s="9"/>
+      <x:c r="H21" s="9"/>
+      <x:c r="I21" s="9"/>
+    </x:row>
+    <x:row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A22" s="14"/>
+      <x:c r="B22" s="7"/>
+      <x:c r="C22" s="8"/>
+      <x:c r="D22" s="8"/>
+      <x:c r="E22" s="8"/>
+      <x:c r="F22" s="8"/>
+      <x:c r="G22" s="9"/>
+      <x:c r="H22" s="9"/>
+      <x:c r="I22" s="9"/>
+    </x:row>
   </x:sheetData>
   <x:sheetProtection sort="0" autoFilter="0"/>
-  <x:autoFilter ref="A1:P2"/>
+  <x:autoFilter ref="A1:Q2"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:legacyDrawing r:id="rId2"/>
